--- a/pickupjointAngles.xlsx
+++ b/pickupjointAngles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DJDuong\Documents\Uni\41013 Robotics\Assignments\2\snl_gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A26DB2-4D34-4FDE-BD98-3A5AB77EA3E6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDDC416-F8C4-4D40-87CB-82C946896334}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6250" xr2:uid="{57CAE362-C936-4107-8781-1966CAEB4CB5}"/>
   </bookViews>
@@ -374,492 +374,492 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:G30"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>0.36355344672889695</v>
+        <v>0.36662140830466822</v>
       </c>
       <c r="B1">
         <v>1.5753982691585535</v>
       </c>
       <c r="C1">
-        <v>0.24850488763747386</v>
+        <v>0.49854375606283335</v>
       </c>
       <c r="D1">
-        <v>0.77466029788224877</v>
+        <v>0.65807775800294011</v>
       </c>
       <c r="E1">
-        <v>0.59825250727540003</v>
+        <v>0.51541754472957546</v>
       </c>
       <c r="F1">
-        <v>-0.98174770424681035</v>
+        <v>-0.85</v>
       </c>
       <c r="G1">
-        <v>1.4526798061277022</v>
+        <v>1.3268933815210797</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.23469906054650311</v>
+        <v>0.30219421521347128</v>
       </c>
       <c r="B2">
-        <v>1.5125050568552423</v>
+        <v>1.5085244799999999</v>
       </c>
       <c r="C2">
-        <v>9.5106808848909749E-2</v>
+        <v>0.28071848418307233</v>
       </c>
       <c r="D2">
-        <v>0.99708751212566671</v>
+        <v>0.82528166388247493</v>
       </c>
       <c r="E2">
-        <v>0.60745639200271395</v>
+        <v>0.59825250727540003</v>
       </c>
       <c r="F2">
-        <v>-1.0676506283684062</v>
+        <v>-0.8620972027917303</v>
       </c>
       <c r="G2">
-        <v>1.6321555583103222</v>
+        <v>1.7088545977046044</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>8.7436904909481541E-2</v>
+        <v>0.10737865515199488</v>
       </c>
       <c r="B3">
-        <v>1.4388739790367313</v>
+        <v>1.4450099021882741</v>
       </c>
       <c r="C3">
-        <v>-0.1595340019401067</v>
+        <v>0.15800002115222103</v>
       </c>
       <c r="D3">
-        <v>1.1949710337629145</v>
+        <v>1.0661166475805206</v>
       </c>
       <c r="E3">
-        <v>0.46172821715357798</v>
+        <v>0.43258258218375079</v>
       </c>
       <c r="F3">
-        <v>-1.1290098598838318</v>
+        <v>-1.02841943</v>
       </c>
       <c r="G3">
-        <v>1.7962915026140858</v>
+        <v>1.7195924632198039</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-7.056311624273949E-2</v>
+        <v>-7.9767000970053348E-2</v>
       </c>
       <c r="B4">
-        <v>1.4204662095821037</v>
+        <v>1.445689518</v>
       </c>
       <c r="C4">
-        <v>-0.44638840927472156</v>
+        <v>-0.14726215563702155</v>
       </c>
       <c r="D4">
-        <v>1.244058418975255</v>
+        <v>1.086058397823034</v>
       </c>
       <c r="E4">
-        <v>0.13499030933393641</v>
+        <v>5.062136600022616E-2</v>
       </c>
       <c r="F4">
-        <v>-1.1520195717021164</v>
+        <v>-1.0523108204895499</v>
       </c>
       <c r="G4">
-        <v>1.8039614065535141</v>
+        <v>1.7119225592803755</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
+        <v>-0.33133985018329848</v>
+      </c>
+      <c r="B5">
+        <v>1.5008999999999999</v>
+      </c>
+      <c r="C5">
+        <v>-0.35588354278946877</v>
+      </c>
+      <c r="D5">
+        <v>0.9418642037617837</v>
+      </c>
+      <c r="E5">
         <v>-0.34207771569849799</v>
       </c>
-      <c r="B5">
-        <v>1.4956312681885002</v>
-      </c>
-      <c r="C5">
-        <v>-0.83755351018556012</v>
-      </c>
-      <c r="D5">
-        <v>1.0400389741864646</v>
-      </c>
-      <c r="E5">
-        <v>-0.50007773685071899</v>
-      </c>
       <c r="F5">
-        <v>-1.1152040327928612</v>
+        <v>-1.0246991663076084</v>
       </c>
       <c r="G5">
-        <v>1.6613011932801494</v>
+        <v>1.5876701154616386</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-0.59978648806328572</v>
+        <v>-0.59509999999999996</v>
       </c>
       <c r="B6">
-        <v>1.6045439041283807</v>
+        <v>1.6451</v>
       </c>
       <c r="C6">
-        <v>-0.93879624218601243</v>
+        <v>-0.51234958315380419</v>
       </c>
       <c r="D6">
-        <v>0.69489329691219548</v>
+        <v>0.50621366000226153</v>
       </c>
       <c r="E6">
-        <v>-0.62893212303311286</v>
+        <v>-0.53075735260843182</v>
       </c>
       <c r="F6">
-        <v>-0.9986214929135524</v>
+        <v>-0.83755351018556012</v>
       </c>
       <c r="G6">
-        <v>1.6705050780074633</v>
+        <v>1.6674371164316919</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>-0.65961173879082569</v>
+        <v>-0.60285444963905699</v>
       </c>
       <c r="B7">
-        <v>1.5201749607946704</v>
+        <v>1.4404079598246171</v>
       </c>
       <c r="C7">
-        <v>-0.90351468406464264</v>
+        <v>-0.50467967921437595</v>
       </c>
       <c r="D7">
-        <v>0.73631077818510771</v>
+        <v>0.70869912400316626</v>
       </c>
       <c r="E7">
-        <v>-0.79920399048841906</v>
+        <v>-0.67955348903333901</v>
       </c>
       <c r="F7">
-        <v>-1.0783884938836057</v>
+        <v>-0.83295156782190316</v>
       </c>
       <c r="G7">
-        <v>1.521708941582556</v>
+        <v>1.5631264228554684</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>-0.52615541024477497</v>
+        <v>-0.5108156023659185</v>
       </c>
       <c r="B8">
-        <v>1.3391652278241648</v>
+        <v>1.3038836697027949</v>
       </c>
       <c r="C8">
-        <v>-0.76545641315493496</v>
+        <v>-0.2945243112740431</v>
       </c>
       <c r="D8">
-        <v>1.021631204731837</v>
+        <v>1.0323690702470365</v>
       </c>
       <c r="E8">
+        <v>-0.73477679739722213</v>
+      </c>
+      <c r="F8">
         <v>-0.84829137570075952</v>
       </c>
-      <c r="F8">
-        <v>-0.90351468406464264</v>
-      </c>
       <c r="G8">
-        <v>1.2593982268541113</v>
+        <v>1.2946797849754812</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>-0.36662140830466822</v>
+        <v>-0.33287383097118411</v>
       </c>
       <c r="B9">
-        <v>1.2517283229146832</v>
+        <v>1.2087768608538851</v>
       </c>
       <c r="C9">
-        <v>-0.49087385212340517</v>
+        <v>-3.0679615757712823E-2</v>
       </c>
       <c r="D9">
-        <v>1.2839419194602817</v>
+        <v>1.2609322076419971</v>
       </c>
       <c r="E9">
-        <v>-0.65347581563928314</v>
+        <v>-0.4479223900626072</v>
       </c>
       <c r="F9">
-        <v>-1.0246991663076084</v>
+        <v>-0.9295923574586985</v>
       </c>
       <c r="G9">
-        <v>1.0906603401866908</v>
+        <v>1.1458836485505739</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>-0.20862138715244721</v>
+        <v>-0.12118448224296566</v>
       </c>
       <c r="B10">
-        <v>1.2256506495206272</v>
+        <v>1.1949710337629145</v>
       </c>
       <c r="C10">
-        <v>-9.8174770424681035E-2</v>
+        <v>0.20708740636456155</v>
       </c>
       <c r="D10">
-        <v>1.3775147475213059</v>
+        <v>1.3084856120664519</v>
       </c>
       <c r="E10">
-        <v>-0.17333982903107745</v>
+        <v>1.0737865515199488E-2</v>
       </c>
       <c r="F10">
-        <v>-1.1136700520049756</v>
+        <v>-1.0047574160650949</v>
       </c>
       <c r="G10">
-        <v>1.23178657267217</v>
+        <v>1.2808739578845103</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>-1.0737865515199488E-2</v>
+        <v>0.2500388684253595</v>
       </c>
       <c r="B11">
-        <v>1.3054176504906807</v>
+        <v>1.2870098810360528</v>
       </c>
       <c r="C11">
-        <v>0.34054373491061235</v>
+        <v>0.42491267824432261</v>
       </c>
       <c r="D11">
-        <v>1.2302525918842842</v>
+        <v>1.047708878125893</v>
       </c>
       <c r="E11">
-        <v>0.41110685115335183</v>
+        <v>0.67341756588179646</v>
       </c>
       <c r="F11">
-        <v>-1.1106020904292042</v>
+        <v>-0.84368943333710267</v>
       </c>
       <c r="G11">
-        <v>1.1934370529750289</v>
+        <v>1.6137477888556946</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>0.42491267824432261</v>
+        <v>0.42951462060797951</v>
       </c>
       <c r="B12">
-        <v>1.3913205746122765</v>
+        <v>1.4005244593395905</v>
       </c>
       <c r="C12">
-        <v>0.21629129109187539</v>
+        <v>0.55376706442671642</v>
       </c>
       <c r="D12">
-        <v>0.83755351018556012</v>
+        <v>0.73017485503356516</v>
       </c>
       <c r="E12">
-        <v>0.80227195206419033</v>
+        <v>0.72557291266990831</v>
       </c>
       <c r="F12">
-        <v>-0.86516516436750157</v>
+        <v>-0.77312631709436319</v>
       </c>
       <c r="G12">
-        <v>1.5631264228554684</v>
+        <v>1.4603497100671303</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>0.49087385212340517</v>
+        <v>0.46939812109300622</v>
       </c>
       <c r="B13">
-        <v>1.179631225884058</v>
+        <v>1.2195147263690846</v>
       </c>
       <c r="C13">
-        <v>0.10891263593988053</v>
+        <v>0.39576704327449541</v>
       </c>
       <c r="D13">
-        <v>0.94646614612544056</v>
+        <v>0.88050497224635804</v>
       </c>
       <c r="E13">
-        <v>0.9081166264282996</v>
+        <v>0.78693214418533397</v>
       </c>
       <c r="F13">
-        <v>-0.6688156235181395</v>
+        <v>-0.67648552745756774</v>
       </c>
       <c r="G13">
-        <v>1.6229516735830083</v>
+        <v>1.5815341923100961</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>0.37735927381986772</v>
+        <v>0.3236699462438703</v>
       </c>
       <c r="B14">
-        <v>1.0891263593988052</v>
+        <v>1.1060001480655473</v>
       </c>
       <c r="C14">
-        <v>-6.7495154666968205E-2</v>
+        <v>0.21475731030398976</v>
       </c>
       <c r="D14">
-        <v>1.2394564766115981</v>
+        <v>1.1919030721871431</v>
       </c>
       <c r="E14">
-        <v>0.8620972027917303</v>
+        <v>0.68262145060911028</v>
       </c>
       <c r="F14">
-        <v>-0.74398068212453594</v>
+        <v>-0.77926224024590574</v>
       </c>
       <c r="G14">
-        <v>1.8729905420083679</v>
+        <v>1.7579419829169447</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>0.13192234775816514</v>
+        <v>0.14419419406125028</v>
       </c>
       <c r="B15">
-        <v>0.94800012691332625</v>
+        <v>1.0108933392166375</v>
       </c>
       <c r="C15">
-        <v>-0.2239611950313036</v>
+        <v>-4.9087385212340517E-2</v>
       </c>
       <c r="D15">
-        <v>1.4802914603096438</v>
+        <v>1.3744467859455345</v>
       </c>
       <c r="E15">
-        <v>0.50314569842649026</v>
+        <v>0.28532042654672923</v>
       </c>
       <c r="F15">
-        <v>-0.86669914515538726</v>
+        <v>-0.87590302988270108</v>
       </c>
       <c r="G15">
-        <v>1.8607186957052828</v>
+        <v>1.7287963479471176</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>-6.7495154666968205E-2</v>
+        <v>-0.32520392703175593</v>
       </c>
       <c r="B16">
-        <v>0.9648739155800683</v>
+        <v>1.0400389741864646</v>
       </c>
       <c r="C16">
-        <v>-0.71330106636682311</v>
+        <v>2.7611654181941541E-2</v>
       </c>
       <c r="D16">
-        <v>1.4910293258248433</v>
+        <v>1.3453011509757073</v>
       </c>
       <c r="E16">
-        <v>-0.27765052260730105</v>
+        <v>-0.35588354278946877</v>
       </c>
       <c r="F16">
-        <v>-0.96333993479218261</v>
+        <v>-0.90351468406464264</v>
       </c>
       <c r="G16">
-        <v>1.569262346007011</v>
+        <v>1.2149127840054279</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>-0.54763114127517387</v>
+        <v>-0.56910687230557289</v>
       </c>
       <c r="B17">
-        <v>1.1305438406717176</v>
+        <v>1.0937283017624622</v>
       </c>
       <c r="C17">
-        <v>-0.67495154666968216</v>
+        <v>-0.1902136176978195</v>
       </c>
       <c r="D17">
-        <v>1.1826991874598294</v>
+        <v>1.1274758790959463</v>
       </c>
       <c r="E17">
-        <v>-0.87130108751904423</v>
+        <v>-0.75778650921550672</v>
       </c>
       <c r="F17">
-        <v>-0.84368943333710267</v>
+        <v>-0.66574766194236823</v>
       </c>
       <c r="G17">
-        <v>1.1213399559444037</v>
+        <v>1.1903690913992575</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>-0.63660202697254109</v>
+        <v>-0.71023310479105184</v>
       </c>
       <c r="B18">
-        <v>1.23178657267217</v>
+        <v>1.2302525918842842</v>
       </c>
       <c r="C18">
-        <v>-0.82374768309458934</v>
+        <v>-0.34821363885004053</v>
       </c>
       <c r="D18">
-        <v>0.92499041509504165</v>
+        <v>0.79000010576110524</v>
       </c>
       <c r="E18">
-        <v>-0.86056322200384472</v>
+        <v>-0.83448554860978885</v>
       </c>
       <c r="F18">
-        <v>-0.81761175994304669</v>
+        <v>-0.58751464176020052</v>
       </c>
       <c r="G18">
-        <v>1.3683108627939919</v>
+        <v>1.3775147475213059</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>-0.69029135454853852</v>
+        <v>-0.64887387327562618</v>
       </c>
       <c r="B19">
-        <v>1.0707185899441776</v>
+        <v>1.0630486860047492</v>
       </c>
       <c r="C19">
-        <v>-0.72864087424567958</v>
+        <v>-0.380427235395639</v>
       </c>
       <c r="D19">
-        <v>0.98328168503469604</v>
+        <v>0.93879624218601243</v>
       </c>
       <c r="E19">
-        <v>-0.88510691461001501</v>
+        <v>-0.82374768309458934</v>
       </c>
       <c r="F19">
-        <v>-0.70102922006373802</v>
+        <v>-0.65654377721505441</v>
       </c>
       <c r="G19">
-        <v>1.342233189399936</v>
+        <v>1.3713788243697631</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>-0.54149521812363133</v>
+        <v>-0.49854375606283335</v>
       </c>
       <c r="B20">
-        <v>0.96180595400429703</v>
+        <v>0.92652439588292723</v>
       </c>
       <c r="C20">
-        <v>-0.71790300873048007</v>
+        <v>-0.29912625363770001</v>
       </c>
       <c r="D20">
-        <v>1.2072428800659996</v>
+        <v>1.2026409377023426</v>
       </c>
       <c r="E20">
-        <v>-0.88817487618578628</v>
+        <v>-0.74398068212453594</v>
       </c>
       <c r="F20">
-        <v>-0.73477679739722213</v>
+        <v>-0.63200008460888413</v>
       </c>
       <c r="G20">
-        <v>1.2793399770966247</v>
+        <v>1.2716700731571966</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>-0.37275733145621082</v>
+        <v>-0.28225246497095796</v>
       </c>
       <c r="B21">
-        <v>0.81454379836727542</v>
+        <v>0.82221370230670365</v>
       </c>
       <c r="C21">
-        <v>-0.35281558121369749</v>
+        <v>-0.20708740636456155</v>
       </c>
       <c r="D21">
-        <v>1.5063691337036997</v>
+        <v>1.4035924209153616</v>
       </c>
       <c r="E21">
-        <v>-0.43258258218375079</v>
+        <v>-0.5108156023659185</v>
       </c>
       <c r="F21">
-        <v>-0.8390874909734457</v>
+        <v>-0.75318456685184987</v>
       </c>
       <c r="G21">
-        <v>1.2241166687327416</v>
+        <v>1.3161555160058802</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -867,209 +867,210 @@
         <v>-6.5961173879082569E-2</v>
       </c>
       <c r="B22">
-        <v>0.7485826244881929</v>
+        <v>0.7715923363064775</v>
       </c>
       <c r="C22">
-        <v>-0.21168934872821848</v>
+        <v>0.19634954084936207</v>
       </c>
       <c r="D22">
-        <v>1.5401167110371838</v>
+        <v>1.4618836908550161</v>
       </c>
       <c r="E22">
-        <v>0.12425244381873693</v>
+        <v>0.16873788666742054</v>
       </c>
       <c r="F22">
-        <v>-0.79153408654899082</v>
+        <v>-0.73170883582145085</v>
       </c>
       <c r="G22">
-        <v>1.5109710760673565</v>
+        <v>1.4450099021882741</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>0.30372819600135698</v>
+        <v>0.27611654181941542</v>
       </c>
       <c r="B23">
-        <v>0.86669914515538726</v>
+        <v>0.81454379836727542</v>
       </c>
       <c r="C23">
-        <v>-5.9825250727540004E-2</v>
+        <v>0.27458256103152978</v>
       </c>
       <c r="D23">
-        <v>1.3514370741272499</v>
+        <v>1.2670681307935396</v>
       </c>
       <c r="E23">
-        <v>0.74551466291242163</v>
+        <v>0.63200008460888413</v>
       </c>
       <c r="F23">
-        <v>-0.69029135454853852</v>
+        <v>-0.50314569842649026</v>
       </c>
       <c r="G23">
-        <v>1.7564080021290591</v>
+        <v>1.6106798272799232</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>0.50621366000226153</v>
+        <v>0.44485442848683593</v>
       </c>
       <c r="B24">
-        <v>1.0032234352772094</v>
+        <v>0.98941760818623858</v>
       </c>
       <c r="C24">
-        <v>-1.5339807878856412E-3</v>
+        <v>0.43104860139586515</v>
       </c>
       <c r="D24">
-        <v>1.0446409165501216</v>
+        <v>0.93572828061024116</v>
       </c>
       <c r="E24">
-        <v>0.87590302988270108</v>
+        <v>0.79153408654899082</v>
       </c>
       <c r="F24">
-        <v>-0.56757289151768719</v>
+        <v>-0.46172821715357798</v>
       </c>
       <c r="G24">
-        <v>1.6520973085528354</v>
+        <v>1.5048351529158139</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>0.48627190975974827</v>
+        <v>0.38502917775929596</v>
       </c>
       <c r="B25">
-        <v>0.85442729885230218</v>
+        <v>0.85351468406464304</v>
       </c>
       <c r="C25">
-        <v>7.5165058606396412E-2</v>
+        <v>0.55990298757825907</v>
       </c>
       <c r="D25">
-        <v>0.96027197321641133</v>
+        <v>0.92038847273138469</v>
       </c>
       <c r="E25">
-        <v>0.87590302988270108</v>
+        <v>0.81607777915516111</v>
       </c>
       <c r="F25">
-        <v>-0.3865631585471816</v>
+        <v>-0.48332044769895</v>
       </c>
       <c r="G25">
-        <v>1.4542137869155878</v>
+        <v>1.342233189399936</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>0.19481556006147643</v>
+        <v>0.3175340230923277</v>
       </c>
       <c r="B26">
-        <v>0.66574766194236823</v>
+        <v>0.75227195206418995</v>
       </c>
       <c r="C26">
-        <v>4.141748127291231E-2</v>
+        <v>0.33133985018329848</v>
       </c>
       <c r="D26">
-        <v>1.3161555160058802</v>
+        <v>1.1627574372173159</v>
       </c>
       <c r="E26">
-        <v>0.64273795012408363</v>
+        <v>0.75165058606396418</v>
       </c>
       <c r="F26">
-        <v>-0.4479223900626072</v>
+        <v>-0.50007773685071899</v>
       </c>
       <c r="G26">
-        <v>1.5493205957644975</v>
+        <v>1.5263108839462129</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>7.8233020182167698E-2</v>
+        <v>-3.0679615757712823E-2</v>
       </c>
       <c r="B27">
-        <v>0.57677677624500112</v>
+        <v>0.69949523927585233</v>
       </c>
       <c r="C27">
-        <v>-0.2945243112740431</v>
+        <v>0.24850488763747386</v>
       </c>
       <c r="D27">
-        <v>1.4879613642490719</v>
+        <v>1.3573399982488501</v>
       </c>
       <c r="E27">
-        <v>0.27151459945575851</v>
+        <v>0.30526217678924261</v>
       </c>
       <c r="F27">
-        <v>-0.52308744866900359</v>
+        <v>-0.66943698951836605</v>
       </c>
       <c r="G27">
-        <v>1.6014759425526093</v>
+        <v>1.4618836908550161</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>-0.25310683000113077</v>
+        <v>-0.24236896448593132</v>
       </c>
       <c r="B28">
-        <v>0.63200008460888413</v>
+        <v>0.72710689345779389</v>
       </c>
       <c r="C28">
-        <v>-0.48320394818397699</v>
+        <v>-0.27458256103152978</v>
       </c>
       <c r="D28">
-        <v>1.4894953450369577</v>
+        <v>1.3051846514607299</v>
       </c>
       <c r="E28">
-        <v>-0.35434956200158313</v>
+        <v>-0.50467967921437595</v>
       </c>
       <c r="F28">
-        <v>-0.66728164273025392</v>
+        <v>-0.62029135454853901</v>
       </c>
       <c r="G28">
-        <v>1.41126232485479</v>
+        <v>1.3713788243697631</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>-0.54302919891151702</v>
+        <v>-0.42184471666855133</v>
       </c>
       <c r="B29">
-        <v>0.7485826244881929</v>
+        <v>0.8053399136399616</v>
       </c>
       <c r="C29">
-        <v>-0.7148350471547088</v>
+        <v>-0.40190296642603801</v>
       </c>
       <c r="D29">
-        <v>1.1412817061869169</v>
+        <v>1.10803899533869</v>
       </c>
       <c r="E29">
-        <v>-0.82374768309458934</v>
+        <v>-0.7040971816395093</v>
       </c>
       <c r="F29">
-        <v>-0.39883500485026668</v>
+        <v>-0.54677677624500098</v>
       </c>
       <c r="G29">
-        <v>1.4557477677034734</v>
+        <v>1.4250681519457606</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>-0.79306806733687651</v>
+        <v>-0.67341756588179646</v>
       </c>
       <c r="B30">
-        <v>0.98328168503469604</v>
+        <v>0.96947585794372526</v>
       </c>
       <c r="C30">
-        <v>-0.75165058606396418</v>
+        <v>-0.33440781175906975</v>
       </c>
       <c r="D30">
-        <v>0.68415543139699597</v>
+        <v>0.80266031903446999</v>
       </c>
       <c r="E30">
-        <v>-0.97407780030738211</v>
+        <v>-0.78994185600361899</v>
       </c>
       <c r="F30">
-        <v>-0.33900975412272671</v>
+        <v>-0.509844737820772</v>
       </c>
       <c r="G30">
-        <v>1.59073807703741</v>
+        <v>1.4603497100671303</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>